--- a/数据整理/stocks/其他/PDD-PINDUODUOINC.xlsx
+++ b/数据整理/stocks/其他/PDD-PINDUODUOINC.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1107,56 +1159,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/其他/PDD-PINDUODUOINC.xlsx
+++ b/数据整理/stocks/其他/PDD-PINDUODUOINC.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>26.27</v>
       </c>
     </row>
@@ -498,6 +515,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>317.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4896</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5253</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9770</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9770</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6812</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4978</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
